--- a/_pedro/notas/musb19.xlsx
+++ b/_pedro/notas/musb19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D145C96-9208-3348-A733-2076F07608B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3B5004-FD7B-7C4A-9CB8-F9127A8E15F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nome</t>
   </si>
@@ -48,13 +48,16 @@
     <t>Eduardo Lago Nunes</t>
   </si>
   <si>
-    <t>Filipe Palma Abreu</t>
-  </si>
-  <si>
     <t>Lucas Borges Jagersbacher</t>
   </si>
   <si>
     <t>Gabriel Andrade Vieira</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Conceito</t>
   </si>
 </sst>
 </file>
@@ -415,19 +418,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52662730-B2EC-5246-9883-F7D2B6CC212C}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="5.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,25 +450,56 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="0">SUM(B3:F3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musb19.xlsx
+++ b/_pedro/notas/musb19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3B5004-FD7B-7C4A-9CB8-F9127A8E15F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C9FB6-A258-1445-905F-08A052F9307D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,6 +467,9 @@
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="G2">
         <f>SUM(B2:F2)</f>
         <v>4</v>
@@ -482,6 +485,9 @@
       <c r="C3">
         <v>1.5</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="G3">
         <f t="shared" ref="G3:G4" si="0">SUM(B3:F3)</f>
         <v>3</v>
@@ -497,9 +503,12 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
